--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/63.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/63.xlsx
@@ -479,13 +479,13 @@
         <v>-3.561190353231317</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.651934169635311</v>
+        <v>-4.461507352168973</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.7606703894868</v>
+        <v>-6.910249554580063</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.933836477271711</v>
+        <v>-7.878033352892744</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.534532392353805</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.619717967947992</v>
+        <v>-5.417601535062861</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.259503184566216</v>
+        <v>-6.443916523586248</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.053223489520558</v>
+        <v>-9.061427243043241</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.627789587210697</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.627836072912721</v>
+        <v>-6.461932513890829</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.830087044424475</v>
+        <v>-6.012207439223924</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.26039750907173</v>
+        <v>-10.26026061687945</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.815306335400875</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.366995243107858</v>
+        <v>-7.212932858717634</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.209222284381212</v>
+        <v>-5.382425130655408</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.15617112524162</v>
+        <v>-11.15108655810003</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.056667342738326</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.284495605794319</v>
+        <v>-8.152355528195342</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.905619846952661</v>
+        <v>-5.089016272544374</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.29445414903109</v>
+        <v>-12.27668749807672</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.313039372368251</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.819890747790176</v>
+        <v>-8.662005160030024</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.590010008658966</v>
+        <v>-4.778784341804286</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.31962510994762</v>
+        <v>-13.30758348603441</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.541589105959745</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.597448177918062</v>
+        <v>-9.426523608843848</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.29839541606809</v>
+        <v>-4.493339675879457</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.32651607418875</v>
+        <v>-14.38170807270936</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.709377836430746</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.859665172218179</v>
+        <v>-9.67668920121702</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.094372270504863</v>
+        <v>-4.276908230887999</v>
       </c>
       <c r="G9" t="n">
-        <v>-14.86181832505414</v>
+        <v>-14.92901772443989</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.791216624285145</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.06325319617025</v>
+        <v>-9.880971464144194</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.063273297824416</v>
+        <v>-4.215756532996627</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.54245119404544</v>
+        <v>-15.65697129089605</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.773523727003679</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.21177633578026</v>
+        <v>-10.06673416905949</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.415208457139289</v>
+        <v>-4.562367563833429</v>
       </c>
       <c r="G11" t="n">
-        <v>-15.51767370724391</v>
+        <v>-15.63449163732198</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.662616011773397</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.7087096607541</v>
+        <v>-10.56025007823336</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.984340281958075</v>
+        <v>-4.116446136508983</v>
       </c>
       <c r="G12" t="n">
-        <v>-15.24693517397476</v>
+        <v>-15.39378138422942</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.472444625948906</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.23826732855085</v>
+        <v>-11.11283985738015</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.187586075429463</v>
+        <v>-4.329753506112483</v>
       </c>
       <c r="G13" t="n">
-        <v>-14.56179464065217</v>
+        <v>-14.73125739667318</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.231822407218704</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.7026154227567</v>
+        <v>-11.56002264847626</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.424737131522907</v>
+        <v>-4.538318539055075</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.57015248882894</v>
+        <v>-13.79321342713194</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.975723718451768</v>
       </c>
       <c r="E15" t="n">
-        <v>-12.26736905098838</v>
+        <v>-12.12368113916975</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.223569165969957</v>
+        <v>-4.330863310671273</v>
       </c>
       <c r="G15" t="n">
-        <v>-11.90946441428901</v>
+        <v>-12.14906975182964</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.735279614928046</v>
       </c>
       <c r="E16" t="n">
-        <v>-12.76947494522742</v>
+        <v>-12.61103201068444</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.128605096587001</v>
+        <v>-4.229880873835144</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.50878839195221</v>
+        <v>-10.7830518991724</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.54559505686134</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.39131261763719</v>
+        <v>-13.26774296907592</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.775501464630936</v>
+        <v>-3.854214475188266</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.213807809071247</v>
+        <v>-9.500812068186621</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.429702675063297</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.99551075327114</v>
+        <v>-13.85111882446368</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.599599886566203</v>
+        <v>-3.674548361836009</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.526112860598472</v>
+        <v>-7.804815586053826</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.402785240448283</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.86774380137684</v>
+        <v>-14.76298705123945</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.218374687111643</v>
+        <v>-3.268320781264046</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.849256840349649</v>
+        <v>-6.092255148655922</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.477571351948033</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.85127997981472</v>
+        <v>-15.77524614502046</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.769402519502242</v>
+        <v>-2.845167458918823</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.337566139085813</v>
+        <v>-4.593818545008292</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.650931226146768</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.3242376151132</v>
+        <v>-16.26195655663558</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.380609137417698</v>
+        <v>-2.453406449666061</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.431237157090253</v>
+        <v>-3.708170062059783</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.921155744962082</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.16614904263029</v>
+        <v>-17.13209710980223</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.35057596823424</v>
+        <v>-2.415164637953053</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.581928662183522</v>
+        <v>-2.852554748294732</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.275902183472905</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.48167576780725</v>
+        <v>-17.40628728191942</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.13883796983502</v>
+        <v>-2.204238214693741</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.084232652138447</v>
+        <v>-2.34396603095017</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.693182431031713</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.02705915083222</v>
+        <v>-17.97910777148151</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.109117697091044</v>
+        <v>-2.157205968634019</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.126943016127816</v>
+        <v>-2.349715503025663</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.155036770656805</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.7893677685422</v>
+        <v>-18.74473113584726</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.903564292378472</v>
+        <v>-1.936711758936155</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.198351850425976</v>
+        <v>-2.435023783846462</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.630981475923073</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.03116827016607</v>
+        <v>-18.98246398375787</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.850420787735107</v>
+        <v>-1.915371243962072</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.158032210794528</v>
+        <v>-2.374292540545644</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.096323551454694</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.22270000318433</v>
+        <v>-19.15070937706901</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.104360693409536</v>
+        <v>-2.162872327592774</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.604897216444288</v>
+        <v>-2.797797871385284</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.527125329310977</v>
       </c>
       <c r="E28" t="n">
-        <v>-19.25056734232575</v>
+        <v>-19.16899915175814</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.041752071471823</v>
+        <v>-2.084144650014843</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.294623638208048</v>
+        <v>-3.4610503209647</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.896271573550128</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.18356839222155</v>
+        <v>-19.10726566204961</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.387165295626231</v>
+        <v>-2.436646934126277</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.031920096786891</v>
+        <v>-4.243931879570658</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.187577862344511</v>
       </c>
       <c r="E30" t="n">
-        <v>-18.97379088557596</v>
+        <v>-18.87869970201447</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.460964854282312</v>
+        <v>-2.478785284312217</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.818849753078654</v>
+        <v>-5.06727974801407</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.383801763067222</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.10597496423674</v>
+        <v>-19.01739104881511</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.528677599389084</v>
+        <v>-2.54074366833663</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.474382460815211</v>
+        <v>-5.729774401529114</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.477476784243982</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.19616736291758</v>
+        <v>-19.12692924766834</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.71251403559882</v>
+        <v>-2.714386525228849</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.272405273688004</v>
+        <v>-6.497788490252783</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.47157888022944</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.0716981370928</v>
+        <v>-18.99749279086677</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.74382812458141</v>
+        <v>-2.757082222197617</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.124031157849653</v>
+        <v>-7.35265089696033</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.368118539851915</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.45595705624606</v>
+        <v>-18.3576684621936</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.743388113963388</v>
+        <v>-2.795382701993029</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.62727130168181</v>
+        <v>-7.855744370586478</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.180110087329669</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.04375510928273</v>
+        <v>-17.94182909412129</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.735917711470742</v>
+        <v>-2.746106401781393</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.022405725672742</v>
+        <v>-8.229279162239381</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.921043317729571</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.6914874975009</v>
+        <v>-17.59287622899523</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.9674512986741</v>
+        <v>-3.002241471539067</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.224448823454869</v>
+        <v>-8.411756454540114</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.607689761801674</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.345394701392</v>
+        <v>-17.2148533290385</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.582965131639308</v>
+        <v>-2.627997773890461</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.521402211544416</v>
+        <v>-8.697714466185971</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.265440152045702</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.85468019315288</v>
+        <v>-16.73797471023275</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.690405946546631</v>
+        <v>-2.73495457711796</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.502403530859585</v>
+        <v>-8.668111529606801</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.909960163150984</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.44431162376464</v>
+        <v>-16.34879998561259</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.577797451380979</v>
+        <v>-2.633918361206296</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.504051126173735</v>
+        <v>-8.647152357168336</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.561535441828262</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.94247462490329</v>
+        <v>-15.84100328738046</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.50057069891119</v>
+        <v>-2.570566610224811</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.263184424861436</v>
+        <v>-8.438347762889265</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.234333005493744</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.27093530868445</v>
+        <v>-15.1761325765281</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.182897699719657</v>
+        <v>-2.256213246695914</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.368835863255468</v>
+        <v>-8.528906837085131</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.934418188097171</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.80885082465798</v>
+        <v>-14.70933020087506</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.002253784994017</v>
+        <v>-2.080223666507577</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.85051313323888</v>
+        <v>-8.000150966414546</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.669584861980215</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.34442450634226</v>
+        <v>-14.23377650293025</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.220660388759709</v>
+        <v>-2.31808851760359</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.587249891469243</v>
+        <v>-7.768113811503895</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.435508933985581</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.98649053560169</v>
+        <v>-13.92040094077473</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.09091592452552</v>
+        <v>-2.220601720677306</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.984264229538288</v>
+        <v>-7.16308454470257</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.230044124070375</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.38484935055913</v>
+        <v>-13.35137920954823</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.103363336008685</v>
+        <v>-2.221359516741678</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.392479282339435</v>
+        <v>-6.577904645780919</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.047084456857435</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.75138561981983</v>
+        <v>-12.75075004892713</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.24667968330543</v>
+        <v>-2.362426920879642</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.958496809783997</v>
+        <v>-6.163781319118888</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.874838122049963</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.36114998070955</v>
+        <v>-12.35994239601342</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.361703347863338</v>
+        <v>-2.486192129715593</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.968054818208815</v>
+        <v>-6.156359806694911</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.707567186821372</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.55088020563513</v>
+        <v>-11.51051656494188</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.453445561720997</v>
+        <v>-2.572761774308056</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.118873437480624</v>
+        <v>-5.293753213110171</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.533989283979711</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.19288756681215</v>
+        <v>-11.17110704122005</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.835687674603875</v>
+        <v>-2.947597041787558</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.677004996848851</v>
+        <v>-4.840038708839863</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.347654190073293</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.71089504682361</v>
+        <v>-10.69861386157392</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.989329604403545</v>
+        <v>-3.093132998201883</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.784196472405961</v>
+        <v>-4.941060257730927</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.146167561005754</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.35182193748304</v>
+        <v>-10.32121675449615</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.002373474724473</v>
+        <v>-3.114209506805153</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.54262086509796</v>
+        <v>-4.656427166946005</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.925221704519995</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.909171255752559</v>
+        <v>-9.866348444605251</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.063319834327435</v>
+        <v>-3.136107368562065</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.099007049014697</v>
+        <v>-4.203411790657666</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.687703338716545</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.734560375500692</v>
+        <v>-9.713870098439907</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.120027424976782</v>
+        <v>-3.221601431643807</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.220342421437793</v>
+        <v>-4.275089520333506</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.433490215171704</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.235881675075367</v>
+        <v>-9.234190078699415</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.217220881491051</v>
+        <v>-3.29241869611107</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.220293531369124</v>
+        <v>-4.254492134403194</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.165225546004922</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.684387033466759</v>
+        <v>-8.675029474323486</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.509255928672482</v>
+        <v>-3.628645476362545</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.567941031661712</v>
+        <v>-4.564914736411092</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.89063342006273</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.567671772532899</v>
+        <v>-8.58448506714822</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.599047428790242</v>
+        <v>-3.700010309598902</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.873992861530588</v>
+        <v>-4.848178905273277</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.615198386923354</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.244063519004932</v>
+        <v>-8.241051890774912</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.568833366352707</v>
+        <v>-3.64213913531523</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.021088411135458</v>
+        <v>-4.948095538612417</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.34976954383953</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.875706185624092</v>
+        <v>-7.874415487811227</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.528694619975335</v>
+        <v>-3.588374726799766</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.626533243520472</v>
+        <v>-5.570989236505451</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.104502828834827</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.64146897762333</v>
+        <v>-7.617537289009782</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.694676403107098</v>
+        <v>-3.767209708984648</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.152404600139577</v>
+        <v>-6.1003562330344</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.8859046419449857</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.596294554173036</v>
+        <v>-7.56630538605138</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.76671591929109</v>
+        <v>-3.803935928568913</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.725415760969477</v>
+        <v>-6.690537585980906</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7027071222575878</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.459441473954353</v>
+        <v>-7.433827966978585</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.845756493308504</v>
+        <v>-3.893473200329594</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.010009739699463</v>
+        <v>-6.988928342089325</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5587821075208306</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.235852522909732</v>
+        <v>-7.163896119842478</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.95168660509395</v>
+        <v>-4.001803814486695</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.508043091218354</v>
+        <v>-7.510438704583143</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4569179978338079</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.109383693276376</v>
+        <v>-7.019152182540593</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.953725320957453</v>
+        <v>-3.994484971206923</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.538990504685926</v>
+        <v>-7.526171528680875</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3980164107060647</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.308855173446505</v>
+        <v>-7.211192372273013</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.983313590516023</v>
+        <v>-4.027578658689071</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.837131921444134</v>
+        <v>-7.812427769745613</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3784166971197577</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.127213901320014</v>
+        <v>-7.033486750674388</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.93193990635848</v>
+        <v>-3.958076537069008</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.13755650440919</v>
+        <v>-8.13368929997746</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3954081663460199</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.39321987594199</v>
+        <v>-7.316721585495372</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.990656878830129</v>
+        <v>-4.040744754181673</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.164582934369497</v>
+        <v>-8.142460178296705</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4420965391814632</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.342163977230797</v>
+        <v>-7.232889784748381</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.286197343935138</v>
+        <v>-4.346498354631667</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.083650314694586</v>
+        <v>-8.08977624029883</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5102736806200934</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.584810277042653</v>
+        <v>-7.477858362822022</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.098757709664485</v>
+        <v>-4.134716355170645</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.089854464408701</v>
+        <v>-8.130350108287358</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5915395705334247</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.783362623921803</v>
+        <v>-7.692935552911344</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.185122015968537</v>
+        <v>-4.210720855923705</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.873393685376041</v>
+        <v>-7.932668004630519</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6764591167095668</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.142597070488979</v>
+        <v>-8.045164052638231</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.956257826514515</v>
+        <v>-3.972523552360741</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.932193770964427</v>
+        <v>-7.98672086455113</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7591748343410263</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.481243909139577</v>
+        <v>-8.373568421902641</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.044895521011683</v>
+        <v>-4.050214760482887</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.010251654601591</v>
+        <v>-8.116802670259137</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8322133683171115</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.023576551879586</v>
+        <v>-8.915128601557678</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.04412305792671</v>
+        <v>-4.083122665704091</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.959185977876665</v>
+        <v>-8.108613583757053</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8895569675956664</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.399961634535899</v>
+        <v>-9.288301606702429</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.284764864923131</v>
+        <v>-4.307855644355571</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.683377544486525</v>
+        <v>-7.848073518812289</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9259531885445879</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.915795860057228</v>
+        <v>-9.825173228772094</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.244323000120011</v>
+        <v>-4.277157570238212</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.336204277860028</v>
+        <v>-7.531608104316884</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9361467670652244</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.3279929180137</v>
+        <v>-10.23465199891056</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.329787729160551</v>
+        <v>-4.358109745940589</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.005252736017955</v>
+        <v>-7.195087983653395</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9160487448837151</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.66745622081107</v>
+        <v>-10.52652570886538</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.383733030930091</v>
+        <v>-4.404560200183148</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.762733550384638</v>
+        <v>-6.971112801066287</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8632303687293856</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.26907296081929</v>
+        <v>-11.15494398451802</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.541325278278227</v>
+        <v>-4.581977370376625</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.489242506249416</v>
+        <v>-6.671626907419678</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7776570054191041</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.79014331269508</v>
+        <v>-11.6959957074589</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.548448561283323</v>
+        <v>-4.593324755314734</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.473015892458125</v>
+        <v>-6.647597438668791</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6626158494041384</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.4475289540342</v>
+        <v>-12.35988372793101</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.916488109217813</v>
+        <v>-4.962190545409733</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.212275378231817</v>
+        <v>-6.404985361905004</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5238351913202894</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.0731311617315</v>
+        <v>-12.99422747990636</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.944956796203858</v>
+        <v>-5.015246047929494</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.885684830515032</v>
+        <v>-6.08183178601566</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3693578465424301</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.59181567825624</v>
+        <v>-13.53412050821978</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.941138481840798</v>
+        <v>-5.000667029452354</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.577853402146599</v>
+        <v>-5.736193667545374</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2089836171541199</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.27924426679255</v>
+        <v>-14.23127333141438</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.148080364503573</v>
+        <v>-5.2208092306558</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.555178188297847</v>
+        <v>-5.741195121570227</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.05278762652728498</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.84618817010061</v>
+        <v>-14.81989509117034</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.422099421380422</v>
+        <v>-5.497942584906874</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.463127967007573</v>
+        <v>-5.628518180308439</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.08840698038707567</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.77420967556467</v>
+        <v>-15.73282912144311</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.558096925397396</v>
+        <v>-5.642842970428499</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.177502407828668</v>
+        <v>-5.354088446854769</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2046006229749739</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.88582316689513</v>
+        <v>-16.86007765673395</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.630874681618292</v>
+        <v>-5.688931638162907</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.052060269637364</v>
+        <v>-5.196036632861142</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2877960952326365</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.01383438725721</v>
+        <v>-18.02395463147172</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.876473941577764</v>
+        <v>-5.962002227707575</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.864884641737525</v>
+        <v>-4.982572815037902</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3294873557429816</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.15614106369815</v>
+        <v>-19.16050694683031</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.049916349188439</v>
+        <v>-6.112270742769072</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.985872894673069</v>
+        <v>-5.096300892776077</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3241095544069691</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.12847652740393</v>
+        <v>-20.09627263917156</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.175793608990898</v>
+        <v>-6.210221995347713</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.065192142081898</v>
+        <v>-5.182938983464677</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2669199920412108</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.11848575093361</v>
+        <v>-21.09547808461791</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.420923524291147</v>
+        <v>-6.506085134905938</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.77236018678116</v>
+        <v>-4.851904328505866</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1516105224240674</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.74218359951847</v>
+        <v>-22.71802701658904</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.635326031432835</v>
+        <v>-6.741989494248318</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.886386493938217</v>
+        <v>-4.966096861896398</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02486949044344412</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.09153482776639</v>
+        <v>-24.10104883512941</v>
       </c>
       <c r="F91" t="n">
-        <v>-6.545485641246406</v>
+        <v>-6.638156766408779</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.710494693887219</v>
+        <v>-4.765368906961472</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2681483495694428</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.76630813108991</v>
+        <v>-25.75966397075777</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.706417080284645</v>
+        <v>-6.801425150729403</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.928119056554203</v>
+        <v>-5.018384790338054</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.5817927865908084</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.42920848123712</v>
+        <v>-27.42905692202425</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.605991990231345</v>
+        <v>-6.715153735555822</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.986376462380361</v>
+        <v>-5.061637834089651</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.9634361739328559</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.07301237056217</v>
+        <v>-29.07715335937845</v>
       </c>
       <c r="F94" t="n">
-        <v>-6.947953575537711</v>
+        <v>-7.076524678123841</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.029057492328529</v>
+        <v>-5.132591990749187</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.411407112067521</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.17980765468749</v>
+        <v>-31.18541290106041</v>
       </c>
       <c r="F95" t="n">
-        <v>-6.861447488034518</v>
+        <v>-7.022584265361168</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.939725558856259</v>
+        <v>-5.034161615497588</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.917591869181539</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.03066831833669</v>
+        <v>-33.03055098217188</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.164521912721442</v>
+        <v>-7.299179828856881</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.157452590667449</v>
+        <v>-5.262072448612563</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.463877912694342</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.03424444498427</v>
+        <v>-35.02038655502</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.309295184064528</v>
+        <v>-7.482146021844306</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.974290837405348</v>
+        <v>-5.086009533321222</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.040972138496488</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.86723578853488</v>
+        <v>-36.86399437698212</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.195523105264551</v>
+        <v>-7.363167150731064</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.260185291961934</v>
+        <v>-5.396974815091347</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.612251919463911</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.90856238170535</v>
+        <v>-38.91390851071432</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.316447801110825</v>
+        <v>-7.447458518123544</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.559035614715843</v>
+        <v>-5.729818402590916</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.175105340833762</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.43761874442269</v>
+        <v>-41.47149467300354</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.006963888421375</v>
+        <v>-7.152524289870033</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.090490217176966</v>
+        <v>-6.291252395159962</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.673978266300082</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.51187279884183</v>
+        <v>-43.55373980914665</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.901067999683996</v>
+        <v>-7.030064445867548</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.722096125306841</v>
+        <v>-6.930710048318102</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.136434130838428</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.87066949741885</v>
+        <v>-45.9242505681768</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.98817543503182</v>
+        <v>-7.147136604302693</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.172564329017518</v>
+        <v>-7.415582193351259</v>
       </c>
     </row>
   </sheetData>
